--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1055864.082318955</v>
+        <v>1053976.500802553</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.662553068615</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>24.08852816170401</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -835,7 +835,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>122.1497763150773</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.2381480623296</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>184.2894664258928</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>116.8504151109978</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>83.58354151325305</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>314.6536463267113</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,13 +1181,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>2.608692535667528</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>59.66385641544551</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.54110646053125</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710065</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>3.295072325547471</v>
+        <v>35.1410601925113</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113169</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>109.7158589243155</v>
       </c>
       <c r="W16" t="n">
-        <v>139.4319924052454</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385009</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>75.13072173266723</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>36.88234405457754</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>85.34481428565536</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>139.434887885234</v>
       </c>
     </row>
     <row r="23">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>115.5269768002171</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>109.1880071964682</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,10 +2533,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002173</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151916</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>63.27822289715316</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>91.23070601801186</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>90.21779139437393</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>93.71057173897881</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>55.21598883571469</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550459</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298319</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.03409577002</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604798</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.85495937537952</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898586</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337359</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463136</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463136</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X2" t="n">
-        <v>1859.412473230863</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y2" t="n">
-        <v>1469.273141255051</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286581</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>348.0202652891861</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1580.775345511217</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="C5" t="n">
-        <v>1580.775345511217</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="D5" t="n">
-        <v>1222.509646904466</v>
+        <v>968.7478615425575</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>582.9596089443132</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>171.9737041547057</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="6">
@@ -4635,25 +4635,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>546.1098286224644</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2639.485358583395</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2420.850691555458</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2420.850691555458</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2089.787804211887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1737.019148941773</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1363.553390680693</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940987</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117056</v>
+        <v>400.6823320653275</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2093037137952</v>
+        <v>253.7923845674171</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521276</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2095034521276</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5024,7 +5024,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5033,13 +5033,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5048,16 +5048,16 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,16 +5072,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,16 +5118,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.1367719529251</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W13" t="n">
-        <v>951.7747876811821</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="X13" t="n">
-        <v>723.7852367831648</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="Y13" t="n">
-        <v>723.7852367831648</v>
+        <v>584.7466045204288</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>713.5778697504956</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="C16" t="n">
-        <v>544.6416868225887</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5467,19 +5467,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="W16" t="n">
-        <v>934.3704488940257</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="X16" t="n">
-        <v>934.3704488940257</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="Y16" t="n">
-        <v>713.5778697504956</v>
+        <v>675.2581065529675</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,7 +5516,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5540,7 +5540,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5598,16 +5598,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>303.4081673726145</v>
+        <v>492.4609007520345</v>
       </c>
       <c r="C19" t="n">
-        <v>134.4719844447075</v>
+        <v>323.5247178241276</v>
       </c>
       <c r="D19" t="n">
-        <v>134.4719844447075</v>
+        <v>323.5247178241276</v>
       </c>
       <c r="E19" t="n">
-        <v>134.4719844447075</v>
+        <v>323.5247178241276</v>
       </c>
       <c r="F19" t="n">
-        <v>134.4719844447075</v>
+        <v>323.5247178241276</v>
       </c>
       <c r="G19" t="n">
-        <v>134.4719844447075</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4719844447075</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="W19" t="n">
-        <v>531.3977182706318</v>
+        <v>720.4504516500517</v>
       </c>
       <c r="X19" t="n">
-        <v>303.4081673726145</v>
+        <v>492.4609007520344</v>
       </c>
       <c r="Y19" t="n">
-        <v>303.4081673726145</v>
+        <v>492.4609007520345</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365139</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216476</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880508</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.7235151749151</v>
+        <v>840.6662285267283</v>
       </c>
       <c r="C22" t="n">
-        <v>563.7235151749151</v>
+        <v>671.7300455988214</v>
       </c>
       <c r="D22" t="n">
-        <v>563.7235151749151</v>
+        <v>671.7300455988214</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>523.8169520164283</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185179</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>1012.505645216463</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X22" t="n">
-        <v>784.5160943184452</v>
+        <v>981.5095496229243</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.7235151749151</v>
+        <v>840.6662285267283</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6072,19 +6072,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>376.4441907482615</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="C25" t="n">
-        <v>207.5080078203547</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="D25" t="n">
-        <v>207.5080078203547</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="E25" t="n">
-        <v>207.5080078203547</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>207.5080078203547</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>207.5080078203547</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6148,16 +6148,16 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O25" t="n">
         <v>1283.483062980063</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765185</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765185</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W25" t="n">
-        <v>786.0822064765185</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X25" t="n">
-        <v>558.0926555785012</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="Y25" t="n">
-        <v>558.0926555785012</v>
+        <v>213.9110074201013</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6227,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6385,19 +6385,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,10 +6409,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
         <v>869.3083006011507</v>
@@ -6424,10 +6424,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="29">
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,16 +6479,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>544.1045888917515</v>
+        <v>494.8466681110257</v>
       </c>
       <c r="C31" t="n">
-        <v>430.9292712452154</v>
+        <v>430.9292712452144</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452154</v>
+        <v>430.9292712452144</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441931</v>
+        <v>338.7770429441923</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276535</v>
+        <v>247.647960727653</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>247.647960727653</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864675</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933507</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667518</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962063</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286026</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021649</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1791.966918253</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1623.942368323877</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1390.574594818806</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1191.65097189429</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818926</v>
+        <v>957.9946671386999</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652462</v>
+        <v>785.7659815220536</v>
       </c>
       <c r="Y31" t="n">
-        <v>669.9921884406205</v>
+        <v>620.7342676598944</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6683,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,19 +6713,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110832</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229662</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506715</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083195</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504502</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
         <v>221.529509210313</v>
@@ -6853,13 +6853,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6874,19 +6874,19 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045198</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010307</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,19 +7017,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986522</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045197</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,19 +7254,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7418,40 +7418,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,22 +7491,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7588,19 +7588,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,13 +8772,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>52.49733361305226</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9246,19 +9246,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>50.6266194094361</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9720,22 +9720,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2279260110435</v>
+        <v>251.3819381440797</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>142.4217843995125</v>
       </c>
       <c r="W16" t="n">
-        <v>147.0910059313456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>91.36284673071036</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>73.53690140969445</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,16 +23941,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24181,19 +24181,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>201.1781840509356</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>79.14976546686077</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635204</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>39.72582117106795</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>48.76534157291736</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>93.41221638965504</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.7610957752355</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.5264373481582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>984701.587309704</v>
+        <v>984701.5873097039</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>984701.5873097039</v>
+        <v>984701.587309704</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321415</v>
@@ -26326,34 +26326,34 @@
         <v>391029.0597377088</v>
       </c>
       <c r="G2" t="n">
+        <v>391029.0597377088</v>
+      </c>
+      <c r="H2" t="n">
+        <v>391029.0597377088</v>
+      </c>
+      <c r="I2" t="n">
         <v>391029.0597377089</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>391029.0597377089</v>
       </c>
-      <c r="I2" t="n">
-        <v>391029.0597377088</v>
-      </c>
-      <c r="J2" t="n">
-        <v>391029.0597377088</v>
-      </c>
       <c r="K2" t="n">
-        <v>406822.1373452705</v>
+        <v>406822.1373452706</v>
       </c>
       <c r="L2" t="n">
         <v>410520.8849321423</v>
       </c>
       <c r="M2" t="n">
+        <v>410520.8849321423</v>
+      </c>
+      <c r="N2" t="n">
+        <v>410520.8849321423</v>
+      </c>
+      <c r="O2" t="n">
+        <v>410520.8849321423</v>
+      </c>
+      <c r="P2" t="n">
         <v>410520.8849321422</v>
-      </c>
-      <c r="N2" t="n">
-        <v>410520.8849321422</v>
-      </c>
-      <c r="O2" t="n">
-        <v>410520.8849321422</v>
-      </c>
-      <c r="P2" t="n">
-        <v>410520.8849321421</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284584</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086687</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.6053028457</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="D4" t="n">
-        <v>147917.0487159209</v>
-      </c>
       <c r="E4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007531</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.73165600752</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="H4" t="n">
+        <v>7916.731656007501</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020403</v>
+        <v>26081.3541702041</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732791</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732794</v>
+      </c>
+      <c r="N4" t="n">
         <v>30335.51889732796</v>
       </c>
-      <c r="M4" t="n">
-        <v>30335.51889732797</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732799</v>
-      </c>
       <c r="O4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,7 +26485,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,13 +26494,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26528,40 @@
         <v>179744.7581528113</v>
       </c>
       <c r="E6" t="n">
-        <v>-234035.0343439113</v>
+        <v>-234132.4934698835</v>
       </c>
       <c r="F6" t="n">
-        <v>291125.0021329847</v>
+        <v>291027.5430070126</v>
       </c>
       <c r="G6" t="n">
-        <v>291125.0021329848</v>
+        <v>291027.5430070125</v>
       </c>
       <c r="H6" t="n">
-        <v>291125.0021329848</v>
+        <v>291027.5430070125</v>
       </c>
       <c r="I6" t="n">
-        <v>291125.0021329847</v>
+        <v>291027.5430070127</v>
       </c>
       <c r="J6" t="n">
-        <v>114701.7829403918</v>
+        <v>114604.3238144197</v>
       </c>
       <c r="K6" t="n">
-        <v>239949.9693419981</v>
+        <v>239931.4756040635</v>
       </c>
       <c r="L6" t="n">
         <v>272127.3534139221</v>
       </c>
       <c r="M6" t="n">
-        <v>147669.2449809517</v>
+        <v>147669.2449809519</v>
       </c>
       <c r="N6" t="n">
-        <v>282470.2602147888</v>
+        <v>282470.260214789</v>
       </c>
       <c r="O6" t="n">
-        <v>282470.2602147888</v>
+        <v>282470.260214789</v>
       </c>
       <c r="P6" t="n">
-        <v>238307.654911943</v>
+        <v>238307.6549119431</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964069</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,7 +26753,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108359</v>
+        <v>12.9286335010833</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855732</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>278.0712885948656</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>325.152440555709</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27470,10 +27470,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>129.9878670087506</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0.2848502742613732</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>197.640903646369</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>296.9337549097972</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>142.1261138757841</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>50.61924544429627</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>171.807020273304</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>75.30176537689272</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>14.65885272800575</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855705</v>
+        <v>55.20325662855731</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>385.6919070110652</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>299.8843243654604</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36440,22 +36440,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>460.8406984080777</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349808</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412283</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584679</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084858</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341609</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403581</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043206</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382552</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>598.8335596281419</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382553</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382553</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586608</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414415</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
